--- a/src/test/resources/data/data-comment.xlsx
+++ b/src/test/resources/data/data-comment.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">Văn Thịnh</t>
   </si>
   <si>
-    <t xml:space="preserve">Mua làm quà biếu rất sang, có túi xách đi kèm, cao sâm đông trùng dễ uống và ngon</t>
+    <t xml:space="preserve">Chính hãng, giá tốt, chất lượng OK</t>
   </si>
   <si>
     <t xml:space="preserve">Đinh Luân</t>
@@ -553,8 +553,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,7 +754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
@@ -762,7 +762,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/src/test/resources/data/data-comment.xlsx
+++ b/src/test/resources/data/data-comment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="135">
   <si>
     <t xml:space="preserve">Tên</t>
   </si>
@@ -323,6 +323,108 @@
   </si>
   <si>
     <t xml:space="preserve">Hàng Ok shop ơi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Nga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop đóng gói hàng rất kỹ lưỡng, cẩn thận, sản phẩm mới, bao bì đẹp mắt, có tem dán chuẩn. Được tặng kèm các thư cảm ơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minh Hà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HealthViet chu đáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My sói</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cty Sức Khỏe Việt rất tận tình, hướng dẫn rất chi tiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quỳnh Búp bê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hàng chuẩn, date dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngọc Trinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giao hàng nhanh, nhiệt tình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai Thao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop tuyệt vời 100 điểm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyên Hồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ưng HealthViet từ cách tư vấn và đóng gói sản phảm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThămNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cty Sức Khỏe Việt uy tin chất lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minh Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop rất ổn áp, sẽ ủng hộ thường xuyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuyết Nhung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK điểm 10 cho chất lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu Thủy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dùng sản phẩm rất Ok trước còn chút lăn tăn, nhưng sau khi sử dụng rất ưng cái bụng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viêt Hà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã trải nghiệm dịch vụ của Shop OK nhé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop OK nhé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim Tiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cũng tàm tạm, thái độ cũng rất nhiệt tình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hải Hậu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được, cảm ơn đã tư vấn cho dù không mua sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyền Thương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có nhu cầu sẽ mua của HealthViet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hải Hà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HealthViet ổn đấy, để mua hàng và được chăm sóc</t>
   </si>
 </sst>
 </file>
@@ -441,7 +543,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,6 +574,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -551,10 +657,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1120,6 +1226,142 @@
         <v>100</v>
       </c>
     </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
